--- a/tests/test_project_data/raw_data.xlsx
+++ b/tests/test_project_data/raw_data.xlsx
@@ -494,9 +494,7 @@
       <c r="F2" t="n">
         <v>-0.3037714512320482</v>
       </c>
-      <c r="G2" t="n">
-        <v>-0.157988909446189</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>1.258191396404583</v>
       </c>
@@ -520,9 +518,7 @@
       <c r="F3" t="n">
         <v>-0.7787399985940539</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.6774322710687918</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>1.312343494363936</v>
       </c>
@@ -546,9 +542,7 @@
       <c r="F4" t="n">
         <v>0.8670539083516856</v>
       </c>
-      <c r="G4" t="n">
-        <v>-0.3419631957862002</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>-0.440453157735961</v>
       </c>
@@ -572,9 +566,7 @@
       <c r="F5" t="n">
         <v>1.1217632613896</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.3119044964081157</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>-0.5328676206298573</v>
       </c>
@@ -598,9 +590,7 @@
       <c r="F6" t="n">
         <v>1.364495219432429</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.054415203637279</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>-0.05451619123091781</v>
       </c>
@@ -624,9 +614,7 @@
       <c r="F7" t="n">
         <v>0.4368111890008604</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.2601101889178086</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>-0.819502599620287</v>
       </c>
@@ -650,9 +638,7 @@
       <c r="F8" t="n">
         <v>-0.09451595297682103</v>
       </c>
-      <c r="G8" t="n">
-        <v>-1.04685227871025</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>-1.212319162941807</v>
       </c>
@@ -676,9 +662,7 @@
       <c r="F9" t="n">
         <v>-1.674522900941328</v>
       </c>
-      <c r="G9" t="n">
-        <v>-0.1839786443002082</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>-0.2841891267935588</v>
       </c>
@@ -702,9 +686,7 @@
       <c r="F10" t="n">
         <v>-0.1528875008420571</v>
       </c>
-      <c r="G10" t="n">
-        <v>-0.4264706832516852</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>-0.8471137186165356</v>
       </c>
@@ -728,9 +710,7 @@
       <c r="F11" t="n">
         <v>-0.5223194224941036</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.150618545057953</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>0.2492105324991214</v>
       </c>
@@ -754,9 +734,7 @@
       <c r="F12" t="n">
         <v>-0.6112098346586816</v>
       </c>
-      <c r="G12" t="n">
-        <v>-1.913804561114032</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
         <v>0.3832090099613838</v>
       </c>
@@ -778,9 +756,7 @@
       <c r="F13" t="n">
         <v>-1.225209928769799</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.186487895223491</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>1.076991788866259</v>
       </c>
@@ -804,9 +780,7 @@
       <c r="F14" t="n">
         <v>0.09989159755581106</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.922073797490591</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>0.2494804630131531</v>
       </c>
@@ -830,9 +804,7 @@
       <c r="F15" t="n">
         <v>2.371785148507819</v>
       </c>
-      <c r="G15" t="n">
-        <v>-1.894568765630599</v>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
         <v>-1.443609141727901</v>
       </c>
@@ -856,9 +828,7 @@
       <c r="F16" t="n">
         <v>0.18276113175439</v>
       </c>
-      <c r="G16" t="n">
-        <v>-0.3575620154905805</v>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>-0.04625462971449715</v>
       </c>
@@ -882,9 +852,7 @@
       <c r="F17" t="n">
         <v>0.07401424352142075</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.6665189843481726</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
         <v>-1.851697065097567</v>
       </c>
@@ -908,9 +876,7 @@
       <c r="F18" t="n">
         <v>-0.2857010560763674</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.06049788381686377</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
         <v>-0.2123062595485593</v>
       </c>
@@ -932,9 +898,7 @@
       <c r="F19" t="n">
         <v>-0.2845790951334837</v>
       </c>
-      <c r="G19" t="n">
-        <v>-0.1460660619208632</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
         <v>0.4232519291396334</v>
       </c>
@@ -958,9 +922,7 @@
       <c r="F20" t="n">
         <v>-0.1789597588930808</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.9966364148975468</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
         <v>1.12635330327993</v>
       </c>
@@ -984,9 +946,7 @@
       <c r="F21" t="n">
         <v>0.7749248052157985</v>
       </c>
-      <c r="G21" t="n">
-        <v>-0.3381351584863113</v>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
         <v>-1.112004795155405</v>
       </c>
@@ -1010,9 +970,7 @@
       <c r="F22" t="n">
         <v>-0.5783595434725717</v>
       </c>
-      <c r="G22" t="n">
-        <v>-1.602876821805252</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
         <v>0.2534244611323342</v>
       </c>
@@ -1036,9 +994,7 @@
       <c r="F23" t="n">
         <v>0.3182750993405906</v>
       </c>
-      <c r="G23" t="n">
-        <v>-2.10749749939844</v>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
         <v>-2.095967051686733</v>
       </c>
@@ -1062,9 +1018,7 @@
       <c r="F24" t="n">
         <v>0.3067392146007051</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.546614813934637</v>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
         <v>1.72614781587838</v>
       </c>
@@ -1088,9 +1042,7 @@
       <c r="F25" t="n">
         <v>-1.810626101138616</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.3511526509428524</v>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
         <v>-1.940864132969403</v>
       </c>
@@ -1114,9 +1066,7 @@
       <c r="F26" t="n">
         <v>0.2356647775751688</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.706578282543686</v>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
         <v>0.6346988222299508</v>
       </c>
@@ -1140,9 +1090,7 @@
       <c r="F27" t="n">
         <v>0.8664267598066455</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.02427275316091584</v>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
         <v>0.4588695265057765</v>
       </c>
@@ -1166,9 +1114,7 @@
       <c r="F28" t="n">
         <v>0.09011813172283145</v>
       </c>
-      <c r="G28" t="n">
-        <v>-0.06327105646139243</v>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
         <v>-0.1799400384753524</v>
       </c>
@@ -1192,9 +1138,7 @@
       <c r="F29" t="n">
         <v>1.32723524836545</v>
       </c>
-      <c r="G29" t="n">
-        <v>-1.284811717814379</v>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
         <v>-0.9604329109277333</v>
       </c>
@@ -1218,9 +1162,7 @@
       <c r="F30" t="n">
         <v>1.381434342422084</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.0285943954112818</v>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
         <v>0.3495284451194932</v>
       </c>
@@ -1244,9 +1186,7 @@
       <c r="F31" t="n">
         <v>1.735763817053581</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.2341817973095726</v>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
         <v>-0.01373019559161995</v>
       </c>
@@ -1270,9 +1210,7 @@
       <c r="F32" t="n">
         <v>-0.08270747252074159</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.7538849996361171</v>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
         <v>1.102061436041613</v>
       </c>
@@ -1296,9 +1234,7 @@
       <c r="F33" t="n">
         <v>-0.2473674654935561</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.298128159837914</v>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
         <v>0.7119734431346667</v>
       </c>
@@ -1322,9 +1258,7 @@
       <c r="F34" t="n">
         <v>-0.3616127346563344</v>
       </c>
-      <c r="G34" t="n">
-        <v>-0.932764939221977</v>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>0.3388528846911539</v>
       </c>
@@ -1348,9 +1282,7 @@
       <c r="F35" t="n">
         <v>0.9327942870960271</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.8886572089665434</v>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
         <v>-1.575514652084737</v>
       </c>
@@ -1374,9 +1306,7 @@
       <c r="F36" t="n">
         <v>0.782967685321958</v>
       </c>
-      <c r="G36" t="n">
-        <v>-0.7745009492613354</v>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
         <v>0.7038623380135581</v>
       </c>
@@ -1400,9 +1330,7 @@
       <c r="F37" t="n">
         <v>-1.002452249154467</v>
       </c>
-      <c r="G37" t="n">
-        <v>-0.02207876711224952</v>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>-1.557126049667482</v>
       </c>
@@ -1426,9 +1354,7 @@
       <c r="F38" t="n">
         <v>1.022941202303604</v>
       </c>
-      <c r="G38" t="n">
-        <v>-1.174117488690212</v>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
         <v>1.174868850184188</v>
       </c>
@@ -1452,9 +1378,7 @@
       <c r="F39" t="n">
         <v>1.044513622800114</v>
       </c>
-      <c r="G39" t="n">
-        <v>1.669418187304373</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
         <v>-0.3394886821652572</v>
       </c>
@@ -1478,9 +1402,7 @@
       <c r="F40" t="n">
         <v>0.127881379821939</v>
       </c>
-      <c r="G40" t="n">
-        <v>-0.8419745661900426</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
         <v>1.19955969653429</v>
       </c>
@@ -1504,9 +1426,7 @@
       <c r="F41" t="n">
         <v>-1.945075494766041</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.3455956536378763</v>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
         <v>1.715724431757643</v>
       </c>
@@ -1530,9 +1450,7 @@
       <c r="F42" t="n">
         <v>1.904496731705125</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.7480180626701455</v>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
         <v>-1.83667860511828</v>
       </c>
@@ -1556,9 +1474,7 @@
       <c r="F43" t="n">
         <v>0.4476656872031483</v>
       </c>
-      <c r="G43" t="n">
-        <v>-1.021031322402895</v>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
         <v>0.3532862779121294</v>
       </c>
@@ -1582,9 +1498,7 @@
       <c r="F44" t="n">
         <v>1.659986153352299</v>
       </c>
-      <c r="G44" t="n">
-        <v>-1.078361904554094</v>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
         <v>-0.6021757054938222</v>
       </c>
@@ -1608,9 +1522,7 @@
       <c r="F45" t="n">
         <v>0.345972903213777</v>
       </c>
-      <c r="G45" t="n">
-        <v>-2.428400303884889</v>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
         <v>0.3672949061525647</v>
       </c>
@@ -1632,9 +1544,7 @@
       <c r="F46" t="n">
         <v>0.7469395384586477</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.5771009354687265</v>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
         <v>-2.56562305804699</v>
       </c>
@@ -1658,9 +1568,7 @@
       <c r="F47" t="n">
         <v>0.03898644860885329</v>
       </c>
-      <c r="G47" t="n">
-        <v>-0.116149119248953</v>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
         <v>-1.286328277286238</v>
       </c>
@@ -1684,9 +1592,7 @@
       <c r="F48" t="n">
         <v>1.574096561016636</v>
       </c>
-      <c r="G48" t="n">
-        <v>1.39554604516858</v>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
         <v>-0.4643721814536547</v>
       </c>
@@ -1710,9 +1616,7 @@
       <c r="F49" t="n">
         <v>-0.2855585751778168</v>
       </c>
-      <c r="G49" t="n">
-        <v>-2.004826739554117</v>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
         <v>-0.5275015283724449</v>
       </c>
@@ -1736,9 +1640,7 @@
       <c r="F50" t="n">
         <v>0.1447676700118066</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.4352439391925884</v>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
         <v>2.998385639998854</v>
       </c>
@@ -1762,9 +1664,7 @@
       <c r="F51" t="n">
         <v>-0.520621957260065</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.6979684595151631</v>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
         <v>0.5206696981906984</v>
       </c>
@@ -1788,9 +1688,7 @@
       <c r="F52" t="n">
         <v>-0.795495273740608</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.7824057657358687</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
         <v>0.02940928694209497</v>
       </c>
@@ -1814,9 +1712,7 @@
       <c r="F53" t="n">
         <v>-0.1823683686102011</v>
       </c>
-      <c r="G53" t="n">
-        <v>0.2584098266617079</v>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
         <v>2.145228762377485</v>
       </c>
@@ -1840,9 +1736,7 @@
       <c r="F54" t="n">
         <v>-1.150564355426252</v>
       </c>
-      <c r="G54" t="n">
-        <v>1.626882468845689</v>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
         <v>-0.04928349316358954</v>
       </c>
@@ -1866,9 +1760,7 @@
       <c r="F55" t="n">
         <v>0.3185126992607578</v>
       </c>
-      <c r="G55" t="n">
-        <v>-0.4180540682490512</v>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
         <v>-0.08828919560650457</v>
       </c>
@@ -1892,9 +1784,7 @@
       <c r="F56" t="n">
         <v>-2.771565991674202</v>
       </c>
-      <c r="G56" t="n">
-        <v>-1.488063264778056</v>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
         <v>-0.2410880821202202</v>
       </c>
@@ -1918,9 +1808,7 @@
       <c r="F57" t="n">
         <v>0.3494149065911288</v>
       </c>
-      <c r="G57" t="n">
-        <v>-0.2962866635456528</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
         <v>-0.4000639931184808</v>
       </c>
@@ -1944,9 +1832,7 @@
       <c r="F58" t="n">
         <v>-0.8435291635675959</v>
       </c>
-      <c r="G58" t="n">
-        <v>-0.1257235525306267</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
         <v>0.6725902375889932</v>
       </c>
@@ -1970,9 +1856,7 @@
       <c r="F59" t="n">
         <v>0.7048867971501362</v>
       </c>
-      <c r="G59" t="n">
-        <v>0.1139850919808841</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
         <v>0.4484303279396845</v>
       </c>
@@ -1996,9 +1880,7 @@
       <c r="F60" t="n">
         <v>0.1259980593958571</v>
       </c>
-      <c r="G60" t="n">
-        <v>-0.7608966322770548</v>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
         <v>-0.02546178409508416</v>
       </c>
@@ -2022,9 +1904,7 @@
       <c r="F61" t="n">
         <v>0.5417437454977816</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.1720435233429299</v>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
         <v>0.3687084117029405</v>
       </c>
@@ -2048,9 +1928,7 @@
       <c r="F62" t="n">
         <v>-1.490590336870925</v>
       </c>
-      <c r="G62" t="n">
-        <v>-2.028776703243214</v>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
         <v>0.704761980519689</v>
       </c>
@@ -2074,9 +1952,7 @@
       <c r="F63" t="n">
         <v>-0.8085990251483246</v>
       </c>
-      <c r="G63" t="n">
-        <v>0.1544612710722488</v>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
         <v>-0.4230802561772284</v>
       </c>
@@ -2100,9 +1976,7 @@
       <c r="F64" t="n">
         <v>-0.5858157745164355</v>
       </c>
-      <c r="G64" t="n">
-        <v>0.7516166860403254</v>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
         <v>-0.1243402768678577</v>
       </c>
@@ -2126,9 +2000,7 @@
       <c r="F65" t="n">
         <v>-0.8203465676437375</v>
       </c>
-      <c r="G65" t="n">
-        <v>-0.2957100276834215</v>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
         <v>0.5679678230631531</v>
       </c>

--- a/tests/test_project_data/raw_data.xlsx
+++ b/tests/test_project_data/raw_data.xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5HTP_CE</t>
+          <t>5HTP_CB</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DA_CE</t>
+          <t>DA_CB</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>5HT_CE</t>
+          <t>5HT_CB</t>
         </is>
       </c>
     </row>

--- a/tests/test_project_data/raw_data.xlsx
+++ b/tests/test_project_data/raw_data.xlsx
@@ -486,15 +486,17 @@
         <v>1.616663594269794</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.046623958531956</v>
+        <v>1.046623958531956</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.09678654315221985</v>
+        <v>0.09678654315221985</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3037714512320482</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>0.3037714512320482</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8092212877658558</v>
+      </c>
       <c r="H2" t="n">
         <v>1.258191396404583</v>
       </c>
@@ -510,15 +512,17 @@
         <v>0.1567959413926894</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1973027615397768</v>
+        <v>0.1973027615397768</v>
       </c>
       <c r="E3" t="n">
         <v>1.162100794723424</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7787399985940539</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>0.7787399985940539</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.870032725452194</v>
+      </c>
       <c r="H3" t="n">
         <v>1.312343494363936</v>
       </c>
@@ -531,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02290351683304098</v>
+        <v>0.02290351683304098</v>
       </c>
       <c r="D4" t="n">
         <v>0.4596574170625197</v>
@@ -542,9 +546,11 @@
       <c r="F4" t="n">
         <v>0.8670539083516856</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.2229159340281053</v>
+      </c>
       <c r="H4" t="n">
-        <v>-0.440453157735961</v>
+        <v>0.440453157735961</v>
       </c>
     </row>
     <row r="5">
@@ -555,20 +561,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3718822209762003</v>
+        <v>0.3718822209762003</v>
       </c>
       <c r="D5" t="n">
         <v>1.53211061213358</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6639925494041601</v>
+        <v>0.6639925494041601</v>
       </c>
       <c r="F5" t="n">
         <v>1.1217632613896</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1.329481590365151</v>
+      </c>
       <c r="H5" t="n">
-        <v>-0.5328676206298573</v>
+        <v>0.5328676206298573</v>
       </c>
     </row>
     <row r="6">
@@ -579,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2963574189890781</v>
+        <v>0.2963574189890781</v>
       </c>
       <c r="D6" t="n">
         <v>0.190137429818727</v>
@@ -590,9 +598,11 @@
       <c r="F6" t="n">
         <v>1.364495219432429</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0.9234523585336611</v>
+      </c>
       <c r="H6" t="n">
-        <v>-0.05451619123091781</v>
+        <v>0.05451619123091781</v>
       </c>
     </row>
     <row r="7">
@@ -603,20 +613,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8262909105652441</v>
+        <v>0.8262909105652441</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7927430564433418</v>
+        <v>0.7927430564433418</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.078107880821931</v>
+        <v>1.078107880821931</v>
       </c>
       <c r="F7" t="n">
         <v>0.4368111890008604</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.04622297630719774</v>
+      </c>
       <c r="H7" t="n">
-        <v>-0.819502599620287</v>
+        <v>0.819502599620287</v>
       </c>
     </row>
     <row r="8">
@@ -630,17 +642,19 @@
         <v>0.04221060009611386</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8145291260645151</v>
+        <v>0.8145291260645151</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.372284807416625</v>
+        <v>1.372284807416625</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09451595297682103</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>0.09451595297682103</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.827840312299314</v>
+      </c>
       <c r="H8" t="n">
-        <v>-1.212319162941807</v>
+        <v>1.212319162941807</v>
       </c>
     </row>
     <row r="9">
@@ -654,17 +668,19 @@
         <v>0.5876190957776722</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09198759813511775</v>
+        <v>0.09198759813511775</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1884575804821531</v>
+        <v>0.1884575804821531</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.674522900941328</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>1.674522900941328</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6589512999401483</v>
+      </c>
       <c r="H9" t="n">
-        <v>-0.2841891267935588</v>
+        <v>0.2841891267935588</v>
       </c>
     </row>
     <row r="10">
@@ -684,11 +700,13 @@
         <v>1.693681306653205</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1528875008420571</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>0.1528875008420571</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5813317571184318</v>
+      </c>
       <c r="H10" t="n">
-        <v>-0.8471137186165356</v>
+        <v>0.8471137186165356</v>
       </c>
     </row>
     <row r="11">
@@ -699,18 +717,20 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5955806745713602</v>
+        <v>0.5955806745713602</v>
       </c>
       <c r="D11" t="n">
         <v>0.582613407492566</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2931340063778307</v>
+        <v>0.2931340063778307</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5223194224941036</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>0.5223194224941036</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3873111431826557</v>
+      </c>
       <c r="H11" t="n">
         <v>0.2492105324991214</v>
       </c>
@@ -732,9 +752,11 @@
         <v>1.075748197731408</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6112098346586816</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>0.6112098346586816</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7767948212405331</v>
+      </c>
       <c r="H12" t="n">
         <v>0.3832090099613838</v>
       </c>
@@ -751,12 +773,14 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.2507827751991791</v>
+        <v>0.2507827751991791</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.225209928769799</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>1.225209928769799</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9095047375801948</v>
+      </c>
       <c r="H13" t="n">
         <v>1.076991788866259</v>
       </c>
@@ -772,15 +796,17 @@
         <v>1.341201769039092</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4083274509406626</v>
+        <v>0.4083274509406626</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6648901856063231</v>
+        <v>0.6648901856063231</v>
       </c>
       <c r="F14" t="n">
         <v>0.09989159755581106</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0.1757166064267242</v>
+      </c>
       <c r="H14" t="n">
         <v>0.2494804630131531</v>
       </c>
@@ -793,10 +819,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3627207778931708</v>
+        <v>0.3627207778931708</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1430310916172936</v>
+        <v>0.1430310916172936</v>
       </c>
       <c r="E15" t="n">
         <v>0.7429832506406885</v>
@@ -804,9 +830,11 @@
       <c r="F15" t="n">
         <v>2.371785148507819</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1.777277893086155</v>
+      </c>
       <c r="H15" t="n">
-        <v>-1.443609141727901</v>
+        <v>1.443609141727901</v>
       </c>
     </row>
     <row r="16">
@@ -817,10 +845,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1681851611601934</v>
+        <v>0.1681851611601934</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3738960127125886</v>
+        <v>0.3738960127125886</v>
       </c>
       <c r="E16" t="n">
         <v>2.132853380593255</v>
@@ -828,9 +856,11 @@
       <c r="F16" t="n">
         <v>0.18276113175439</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1.171569548024616</v>
+      </c>
       <c r="H16" t="n">
-        <v>-0.04625462971449715</v>
+        <v>0.04625462971449715</v>
       </c>
     </row>
     <row r="17">
@@ -841,20 +871,22 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.372615967488541</v>
+        <v>0.372615967488541</v>
       </c>
       <c r="D17" t="n">
         <v>0.747416008011405</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.585949021325404</v>
+        <v>1.585949021325404</v>
       </c>
       <c r="F17" t="n">
         <v>0.07401424352142075</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1.732655455569418</v>
+      </c>
       <c r="H17" t="n">
-        <v>-1.851697065097567</v>
+        <v>1.851697065097567</v>
       </c>
     </row>
     <row r="18">
@@ -865,20 +897,22 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2590269196356154</v>
+        <v>0.2590269196356154</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7527308969011012</v>
+        <v>0.7527308969011012</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.116874180972478</v>
+        <v>1.116874180972478</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2857010560763674</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>0.2857010560763674</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.873248847495789</v>
+      </c>
       <c r="H18" t="n">
-        <v>-0.2123062595485593</v>
+        <v>0.2123062595485593</v>
       </c>
     </row>
     <row r="19">
@@ -896,9 +930,11 @@
         <v>0.1796870869844846</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2845790951334837</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>0.2845790951334837</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.542989747202773</v>
+      </c>
       <c r="H19" t="n">
         <v>0.4232519291396334</v>
       </c>
@@ -911,18 +947,20 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5756010221328327</v>
+        <v>0.5756010221328327</v>
       </c>
       <c r="D20" t="n">
         <v>0.8306267705033202</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4260376493567385</v>
+        <v>0.4260376493567385</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1789597588930808</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>0.1789597588930808</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9985436749602081</v>
+      </c>
       <c r="H20" t="n">
         <v>1.12635330327993</v>
       </c>
@@ -941,14 +979,16 @@
         <v>0.3174860284334867</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1629493986033008</v>
+        <v>0.1629493986033008</v>
       </c>
       <c r="F21" t="n">
         <v>0.7749248052157985</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>1.509386814745837</v>
+      </c>
       <c r="H21" t="n">
-        <v>-1.112004795155405</v>
+        <v>1.112004795155405</v>
       </c>
     </row>
     <row r="22">
@@ -968,9 +1008,11 @@
         <v>0.5659409628966977</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5783595434725717</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.5783595434725717</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8306293308741437</v>
+      </c>
       <c r="H22" t="n">
         <v>0.2534244611323342</v>
       </c>
@@ -983,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.555958124061708</v>
+        <v>1.555958124061708</v>
       </c>
       <c r="D23" t="n">
         <v>0.1549414184410493</v>
@@ -994,9 +1036,11 @@
       <c r="F23" t="n">
         <v>0.3182750993405906</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1.971843625883886</v>
+      </c>
       <c r="H23" t="n">
-        <v>-2.095967051686733</v>
+        <v>2.095967051686733</v>
       </c>
     </row>
     <row r="24">
@@ -1007,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.187740051408666</v>
+        <v>2.187740051408666</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.406598371213599</v>
+        <v>1.406598371213599</v>
       </c>
       <c r="E24" t="n">
         <v>0.252559847330181</v>
@@ -1018,7 +1062,9 @@
       <c r="F24" t="n">
         <v>0.3067392146007051</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0.1623400902082439</v>
+      </c>
       <c r="H24" t="n">
         <v>1.72614781587838</v>
       </c>
@@ -1031,20 +1077,22 @@
         <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.754890214717339</v>
+        <v>0.754890214717339</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7744660870729507</v>
+        <v>0.7744660870729507</v>
       </c>
       <c r="E25" t="n">
         <v>2.657387667859072</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.810626101138616</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>1.810626101138616</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5609161685757775</v>
+      </c>
       <c r="H25" t="n">
-        <v>-1.940864132969403</v>
+        <v>1.940864132969403</v>
       </c>
     </row>
     <row r="26">
@@ -1058,15 +1106,17 @@
         <v>2.049376008476459</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.07826665889157219</v>
+        <v>0.07826665889157219</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.244158544992454</v>
+        <v>0.244158544992454</v>
       </c>
       <c r="F26" t="n">
         <v>0.2356647775751688</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1.512571428385589</v>
+      </c>
       <c r="H26" t="n">
         <v>0.6346988222299508</v>
       </c>
@@ -1082,15 +1132,17 @@
         <v>1.785304256403443</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.371870972892731</v>
+        <v>1.371870972892731</v>
       </c>
       <c r="E27" t="n">
-        <v>-3.081892107589745</v>
+        <v>3.081892107589745</v>
       </c>
       <c r="F27" t="n">
         <v>0.8664267598066455</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0.1012498957122068</v>
+      </c>
       <c r="H27" t="n">
         <v>0.4588695265057765</v>
       </c>
@@ -1103,20 +1155,22 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.368593888401078</v>
+        <v>1.368593888401078</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.4214705580780673</v>
+        <v>0.4214705580780673</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.2310864948193774</v>
+        <v>0.2310864948193774</v>
       </c>
       <c r="F28" t="n">
         <v>0.09011813172283145</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1.159059624198231</v>
+      </c>
       <c r="H28" t="n">
-        <v>-0.1799400384753524</v>
+        <v>0.1799400384753524</v>
       </c>
     </row>
     <row r="29">
@@ -1127,10 +1181,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.008794484027121</v>
+        <v>1.008794484027121</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.8729093263536684</v>
+        <v>0.8729093263536684</v>
       </c>
       <c r="E29" t="n">
         <v>0.4651504601833824</v>
@@ -1138,9 +1192,11 @@
       <c r="F29" t="n">
         <v>1.32723524836545</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0.1182948037322917</v>
+      </c>
       <c r="H29" t="n">
-        <v>-0.9604329109277333</v>
+        <v>0.9604329109277333</v>
       </c>
     </row>
     <row r="30">
@@ -1157,12 +1213,14 @@
         <v>0.5282193899819754</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.635328119924401</v>
+        <v>1.635328119924401</v>
       </c>
       <c r="F30" t="n">
         <v>1.381434342422084</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1.783788805080749</v>
+      </c>
       <c r="H30" t="n">
         <v>0.3495284451194932</v>
       </c>
@@ -1175,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.547338225557437</v>
+        <v>1.547338225557437</v>
       </c>
       <c r="D31" t="n">
         <v>2.528317197621981</v>
@@ -1186,9 +1244,11 @@
       <c r="F31" t="n">
         <v>1.735763817053581</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1.907025545412031</v>
+      </c>
       <c r="H31" t="n">
-        <v>-0.01373019559161995</v>
+        <v>0.01373019559161995</v>
       </c>
     </row>
     <row r="32">
@@ -1205,12 +1265,14 @@
         <v>1.338978069534177</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.451680473406441</v>
+        <v>1.451680473406441</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.08270747252074159</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+        <v>0.08270747252074159</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.834702225603453</v>
+      </c>
       <c r="H32" t="n">
         <v>1.102061436041613</v>
       </c>
@@ -1232,9 +1294,11 @@
         <v>0.0229231312118563</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2473674654935561</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>0.2473674654935561</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.479880021635194</v>
+      </c>
       <c r="H33" t="n">
         <v>0.7119734431346667</v>
       </c>
@@ -1250,15 +1314,17 @@
         <v>0.3710339844494581</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3175935405855593</v>
+        <v>0.3175935405855593</v>
       </c>
       <c r="E34" t="n">
         <v>0.7752364484312388</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.3616127346563344</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>0.3616127346563344</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.444813818029493</v>
+      </c>
       <c r="H34" t="n">
         <v>0.3388528846911539</v>
       </c>
@@ -1274,7 +1340,7 @@
         <v>0.368066096879754</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.8103321305119713</v>
+        <v>0.8103321305119713</v>
       </c>
       <c r="E35" t="n">
         <v>1.563030890420645</v>
@@ -1282,9 +1348,11 @@
       <c r="F35" t="n">
         <v>0.9327942870960271</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0.5632780954756218</v>
+      </c>
       <c r="H35" t="n">
-        <v>-1.575514652084737</v>
+        <v>1.575514652084737</v>
       </c>
     </row>
     <row r="36">
@@ -1298,15 +1366,17 @@
         <v>0.427838978321588</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.9802194635577143</v>
+        <v>0.9802194635577143</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.331767717951357</v>
+        <v>2.331767717951357</v>
       </c>
       <c r="F36" t="n">
         <v>0.782967685321958</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1.431975554311046</v>
+      </c>
       <c r="H36" t="n">
         <v>0.7038623380135581</v>
       </c>
@@ -1319,20 +1389,22 @@
         <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.721346029238652</v>
+        <v>1.721346029238652</v>
       </c>
       <c r="D37" t="n">
         <v>1.376553748875343</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.597463768404162</v>
+        <v>0.597463768404162</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.002452249154467</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+        <v>1.002452249154467</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.234862200403733</v>
+      </c>
       <c r="H37" t="n">
-        <v>-1.557126049667482</v>
+        <v>1.557126049667482</v>
       </c>
     </row>
     <row r="38">
@@ -1346,15 +1418,17 @@
         <v>1.635453589807583</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.982739734492369</v>
+        <v>1.982739734492369</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.3021075174431989</v>
+        <v>0.3021075174431989</v>
       </c>
       <c r="F38" t="n">
         <v>1.022941202303604</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1.665644098216494</v>
+      </c>
       <c r="H38" t="n">
         <v>1.174868850184188</v>
       </c>
@@ -1367,10 +1441,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.006788031558145456</v>
+        <v>0.006788031558145456</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1191938997517865</v>
+        <v>0.1191938997517865</v>
       </c>
       <c r="E39" t="n">
         <v>0.4768748552335844</v>
@@ -1378,9 +1452,11 @@
       <c r="F39" t="n">
         <v>1.044513622800114</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0.4482659944274807</v>
+      </c>
       <c r="H39" t="n">
-        <v>-0.3394886821652572</v>
+        <v>0.3394886821652572</v>
       </c>
     </row>
     <row r="40">
@@ -1397,12 +1473,14 @@
         <v>0.2111533337128978</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.6873165503654063</v>
+        <v>0.6873165503654063</v>
       </c>
       <c r="F40" t="n">
         <v>0.127881379821939</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>1.551777027884155</v>
+      </c>
       <c r="H40" t="n">
         <v>1.19955969653429</v>
       </c>
@@ -1415,18 +1493,20 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.5878922836393909</v>
+        <v>0.5878922836393909</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.122428575038539</v>
+        <v>1.122428575038539</v>
       </c>
       <c r="E41" t="n">
         <v>1.251276344361557</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.945075494766041</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>1.945075494766041</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3934189622748621</v>
+      </c>
       <c r="H41" t="n">
         <v>1.715724431757643</v>
       </c>
@@ -1450,9 +1530,11 @@
       <c r="F42" t="n">
         <v>1.904496731705125</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0.8786733754339928</v>
+      </c>
       <c r="H42" t="n">
-        <v>-1.83667860511828</v>
+        <v>1.83667860511828</v>
       </c>
     </row>
     <row r="43">
@@ -1466,15 +1548,17 @@
         <v>0.1091312734479068</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2826684754620069</v>
+        <v>0.2826684754620069</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.354434795634464</v>
+        <v>1.354434795634464</v>
       </c>
       <c r="F43" t="n">
         <v>0.4476656872031483</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0.9188466047741641</v>
+      </c>
       <c r="H43" t="n">
         <v>0.3532862779121294</v>
       </c>
@@ -1493,14 +1577,16 @@
         <v>0.1589294467927792</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.1858195093285354</v>
+        <v>0.1858195093285354</v>
       </c>
       <c r="F44" t="n">
         <v>1.659986153352299</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>1.835787050773165</v>
+      </c>
       <c r="H44" t="n">
-        <v>-0.6021757054938222</v>
+        <v>0.6021757054938222</v>
       </c>
     </row>
     <row r="45">
@@ -1514,15 +1600,17 @@
         <v>1.822087233593706</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2541775488479964</v>
+        <v>0.2541775488479964</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.114781227707632</v>
+        <v>1.114781227707632</v>
       </c>
       <c r="F45" t="n">
         <v>0.345972903213777</v>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0.5729906738387947</v>
+      </c>
       <c r="H45" t="n">
         <v>0.3672949061525647</v>
       </c>
@@ -1535,18 +1623,20 @@
         <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.055167353259178</v>
+        <v>1.055167353259178</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>-0.1469020096117708</v>
+        <v>0.1469020096117708</v>
       </c>
       <c r="F46" t="n">
         <v>0.7469395384586477</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0.9542455053178736</v>
+      </c>
       <c r="H46" t="n">
-        <v>-2.56562305804699</v>
+        <v>2.56562305804699</v>
       </c>
     </row>
     <row r="47">
@@ -1557,10 +1647,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.4467743876833071</v>
+        <v>0.4467743876833071</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.911572739622793</v>
+        <v>1.911572739622793</v>
       </c>
       <c r="E47" t="n">
         <v>0.2682014081616095</v>
@@ -1568,9 +1658,11 @@
       <c r="F47" t="n">
         <v>0.03898644860885329</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1.414712653970047</v>
+      </c>
       <c r="H47" t="n">
-        <v>-1.286328277286238</v>
+        <v>1.286328277286238</v>
       </c>
     </row>
     <row r="48">
@@ -1581,10 +1673,10 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.3499815157025336</v>
+        <v>0.3499815157025336</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.402424069382001</v>
+        <v>1.402424069382001</v>
       </c>
       <c r="E48" t="n">
         <v>2.507455861527363</v>
@@ -1592,9 +1684,11 @@
       <c r="F48" t="n">
         <v>1.574096561016636</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>1.094480542925085</v>
+      </c>
       <c r="H48" t="n">
-        <v>-0.4643721814536547</v>
+        <v>0.4643721814536547</v>
       </c>
     </row>
     <row r="49">
@@ -1608,17 +1702,19 @@
         <v>1.678854771171036</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.7560062749819121</v>
+        <v>0.7560062749819121</v>
       </c>
       <c r="E49" t="n">
         <v>1.471155030527056</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.2855585751778168</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+        <v>0.2855585751778168</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.714002277022561</v>
+      </c>
       <c r="H49" t="n">
-        <v>-0.5275015283724449</v>
+        <v>0.5275015283724449</v>
       </c>
     </row>
     <row r="50">
@@ -1629,18 +1725,20 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.03346293949468647</v>
+        <v>0.03346293949468647</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.8395192699008193</v>
+        <v>0.8395192699008193</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2240439114480409</v>
+        <v>0.2240439114480409</v>
       </c>
       <c r="F50" t="n">
         <v>0.1447676700118066</v>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1.6089706660674</v>
+      </c>
       <c r="H50" t="n">
         <v>2.998385639998854</v>
       </c>
@@ -1659,12 +1757,14 @@
         <v>0.1876403080482043</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.1166781898038515</v>
+        <v>0.1166781898038515</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.520621957260065</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+        <v>0.520621957260065</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5398096002061463</v>
+      </c>
       <c r="H51" t="n">
         <v>0.5206696981906984</v>
       </c>
@@ -1686,9 +1786,11 @@
         <v>1.407335970635944</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.795495273740608</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+        <v>0.795495273740608</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3808085254043243</v>
+      </c>
       <c r="H52" t="n">
         <v>0.02940928694209497</v>
       </c>
@@ -1704,15 +1806,17 @@
         <v>0.7070403884218233</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.9671303470378524</v>
+        <v>0.9671303470378524</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5550032606207191</v>
+        <v>0.5550032606207191</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.1823683686102011</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+        <v>0.1823683686102011</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.4077317167544792</v>
+      </c>
       <c r="H53" t="n">
         <v>2.145228762377485</v>
       </c>
@@ -1734,11 +1838,13 @@
         <v>1.066944120953605</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.150564355426252</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>1.150564355426252</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.301381453655942</v>
+      </c>
       <c r="H54" t="n">
-        <v>-0.04928349316358954</v>
+        <v>0.04928349316358954</v>
       </c>
     </row>
     <row r="55">
@@ -1749,10 +1855,10 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.7701936126918705</v>
+        <v>0.7701936126918705</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.888827018258954</v>
+        <v>1.888827018258954</v>
       </c>
       <c r="E55" t="n">
         <v>0.5249177008412487</v>
@@ -1760,9 +1866,11 @@
       <c r="F55" t="n">
         <v>0.3185126992607578</v>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>0.8967124831868203</v>
+      </c>
       <c r="H55" t="n">
-        <v>-0.08828919560650457</v>
+        <v>0.08828919560650457</v>
       </c>
     </row>
     <row r="56">
@@ -1773,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.09340089140810531</v>
+        <v>0.09340089140810531</v>
       </c>
       <c r="D56" t="n">
         <v>0.4156504009024435</v>
@@ -1782,11 +1890,13 @@
         <v>0.6293056978971444</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.771565991674202</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+        <v>2.771565991674202</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.558217526036279</v>
+      </c>
       <c r="H56" t="n">
-        <v>-0.2410880821202202</v>
+        <v>0.2410880821202202</v>
       </c>
     </row>
     <row r="57">
@@ -1797,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.415112293772669</v>
+        <v>1.415112293772669</v>
       </c>
       <c r="D57" t="n">
         <v>0.485981566948135</v>
@@ -1808,9 +1918,11 @@
       <c r="F57" t="n">
         <v>0.3494149065911288</v>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0.5378878131148661</v>
+      </c>
       <c r="H57" t="n">
-        <v>-0.4000639931184808</v>
+        <v>0.4000639931184808</v>
       </c>
     </row>
     <row r="58">
@@ -1821,18 +1933,20 @@
         <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.3346820487690813</v>
+        <v>0.3346820487690813</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.276969977633608</v>
+        <v>1.276969977633608</v>
       </c>
       <c r="E58" t="n">
         <v>0.8319037341624902</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8435291635675959</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>0.8435291635675959</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.583367861367785</v>
+      </c>
       <c r="H58" t="n">
         <v>0.6725902375889932</v>
       </c>
@@ -1845,18 +1959,20 @@
         <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.3614974114633887</v>
+        <v>0.3614974114633887</v>
       </c>
       <c r="D59" t="n">
         <v>1.036309761802052</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3075082887097659</v>
+        <v>0.3075082887097659</v>
       </c>
       <c r="F59" t="n">
         <v>0.7048867971501362</v>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>1.189435563947883</v>
+      </c>
       <c r="H59" t="n">
         <v>0.4484303279396845</v>
       </c>
@@ -1869,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.2235372607324307</v>
+        <v>0.2235372607324307</v>
       </c>
       <c r="D60" t="n">
         <v>1.751239527148786</v>
@@ -1880,9 +1996,11 @@
       <c r="F60" t="n">
         <v>0.1259980593958571</v>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>0.8025048440856331</v>
+      </c>
       <c r="H60" t="n">
-        <v>-0.02546178409508416</v>
+        <v>0.02546178409508416</v>
       </c>
     </row>
     <row r="61">
@@ -1896,7 +2014,7 @@
         <v>1.124342362297616</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.276127154429382</v>
+        <v>1.276127154429382</v>
       </c>
       <c r="E61" t="n">
         <v>0.8764554127646541</v>
@@ -1904,7 +2022,9 @@
       <c r="F61" t="n">
         <v>0.5417437454977816</v>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>1.153226235641822</v>
+      </c>
       <c r="H61" t="n">
         <v>0.3687084117029405</v>
       </c>
@@ -1917,18 +2037,20 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.2826303196761856</v>
+        <v>0.2826303196761856</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.2254151203722118</v>
+        <v>0.2254151203722118</v>
       </c>
       <c r="E62" t="n">
         <v>1.237844530410626</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.490590336870925</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+        <v>1.490590336870925</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.562816936716508</v>
+      </c>
       <c r="H62" t="n">
         <v>0.704761980519689</v>
       </c>
@@ -1941,20 +2063,22 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.3564519473670624</v>
+        <v>0.3564519473670624</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.5373307369805124</v>
+        <v>0.5373307369805124</v>
       </c>
       <c r="E63" t="n">
         <v>0.6824639745359294</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8085990251483246</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+        <v>0.8085990251483246</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.1824841335917446</v>
+      </c>
       <c r="H63" t="n">
-        <v>-0.4230802561772284</v>
+        <v>0.4230802561772284</v>
       </c>
     </row>
     <row r="64">
@@ -1968,17 +2092,19 @@
         <v>0.03797805588816409</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.353291801119833</v>
+        <v>0.353291801119833</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8100771329739382</v>
+        <v>0.8100771329739382</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5858157745164355</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+        <v>0.5858157745164355</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.715296530461779</v>
+      </c>
       <c r="H64" t="n">
-        <v>-0.1243402768678577</v>
+        <v>0.1243402768678577</v>
       </c>
     </row>
     <row r="65">
@@ -1989,18 +2115,20 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.009766800956864864</v>
+        <v>0.009766800956864864</v>
       </c>
       <c r="D65" t="n">
         <v>1.191485087022133</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.1803731640903688</v>
+        <v>0.1803731640903688</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8203465676437375</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+        <v>0.8203465676437375</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.194380335695098</v>
+      </c>
       <c r="H65" t="n">
         <v>0.5679678230631531</v>
       </c>
